--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Planning AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544388F9-2BDE-4346-BC0E-DC7A50A01757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5FB3F2-B3BC-4CA5-85BA-E4487AD5A682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
-    <sheet name="SQLT0010" sheetId="1" r:id="rId1"/>
+    <sheet name="SQLT0014" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -857,15 +857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J722"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -932,7 +933,7 @@
         <v>57</v>
       </c>
       <c r="E2">
-        <v>1284.201</v>
+        <v>24.201000000000001</v>
       </c>
       <c r="F2">
         <v>1748</v>
@@ -972,7 +973,7 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <v>489.36700000000002</v>
+        <v>34.366999999999997</v>
       </c>
       <c r="F3">
         <v>753</v>
@@ -1052,7 +1053,7 @@
         <v>99</v>
       </c>
       <c r="E5">
-        <v>30.254999999999999</v>
+        <v>0.255</v>
       </c>
       <c r="F5">
         <v>54</v>
@@ -1132,7 +1133,7 @@
         <v>99</v>
       </c>
       <c r="E7">
-        <v>50.206000000000003</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1972,7 +1973,7 @@
         <v>07</v>
       </c>
       <c r="E28">
-        <v>32.043999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F28">
         <v>48</v>
@@ -2052,7 +2053,7 @@
         <v>07</v>
       </c>
       <c r="E30">
-        <v>12.098000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -2132,7 +2133,7 @@
         <v>07</v>
       </c>
       <c r="E32">
-        <v>104.19799999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F32">
         <v>162</v>
@@ -2212,7 +2213,7 @@
         <v>07</v>
       </c>
       <c r="E34">
-        <v>42.137999999999998</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F34">
         <v>84</v>
@@ -2292,7 +2293,7 @@
         <v>07</v>
       </c>
       <c r="E36">
-        <v>72.480999999999995</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="F36">
         <v>132</v>
@@ -2772,7 +2773,7 @@
         <v>57</v>
       </c>
       <c r="E48">
-        <v>292.91699999999997</v>
+        <v>24.917000000000002</v>
       </c>
       <c r="F48">
         <v>514</v>
@@ -2812,7 +2813,7 @@
         <v>57</v>
       </c>
       <c r="E49">
-        <v>1513.5930000000001</v>
+        <v>13.593</v>
       </c>
       <c r="F49">
         <v>2058</v>
@@ -2892,7 +2893,7 @@
         <v>57</v>
       </c>
       <c r="E51">
-        <v>406.00099999999998</v>
+        <v>16.001000000000001</v>
       </c>
       <c r="F51">
         <v>532</v>
@@ -2932,7 +2933,7 @@
         <v>57</v>
       </c>
       <c r="E52">
-        <v>135.971</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="F52">
         <v>266</v>
@@ -3012,7 +3013,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>154.095</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="F54">
         <v>301</v>
@@ -3052,7 +3053,7 @@
         <v>99</v>
       </c>
       <c r="E55">
-        <v>758.99099999999999</v>
+        <v>20.991</v>
       </c>
       <c r="F55">
         <v>1341</v>
@@ -3492,7 +3493,7 @@
         <v>01</v>
       </c>
       <c r="E66">
-        <v>54.749000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="F66">
         <v>108</v>
@@ -3852,7 +3853,7 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <v>199.791</v>
+        <v>1.7909999999999999</v>
       </c>
       <c r="F75">
         <v>330</v>
@@ -3932,7 +3933,7 @@
         <v>73</v>
       </c>
       <c r="E77">
-        <v>18.091999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F77">
         <v>30</v>
@@ -4052,7 +4053,7 @@
         <v>01</v>
       </c>
       <c r="E80">
-        <v>508.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F80">
         <v>762</v>
@@ -4092,7 +4093,7 @@
         <v>01</v>
       </c>
       <c r="E81">
-        <v>1142.9580000000001</v>
+        <v>23.957999999999998</v>
       </c>
       <c r="F81">
         <v>1710</v>
@@ -4132,7 +4133,7 @@
         <v>01</v>
       </c>
       <c r="E82">
-        <v>984.41099999999994</v>
+        <v>8.4109999999999996</v>
       </c>
       <c r="F82">
         <v>1465</v>
@@ -4292,7 +4293,7 @@
         <v>04</v>
       </c>
       <c r="E86">
-        <v>421.92</v>
+        <v>1.92</v>
       </c>
       <c r="F86">
         <v>560</v>
@@ -4532,7 +4533,7 @@
         <v>50</v>
       </c>
       <c r="E92">
-        <v>12.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F92">
         <v>20</v>
@@ -5052,7 +5053,7 @@
         <v>99</v>
       </c>
       <c r="E105">
-        <v>48.302999999999997</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="F105">
         <v>72</v>
@@ -5092,7 +5093,7 @@
         <v>99</v>
       </c>
       <c r="E106">
-        <v>1285.164</v>
+        <v>5.1639999999999997</v>
       </c>
       <c r="F106">
         <v>1720</v>
@@ -5132,7 +5133,7 @@
         <v>99</v>
       </c>
       <c r="E107">
-        <v>80.521000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F107">
         <v>120</v>
@@ -5172,7 +5173,7 @@
         <v>99</v>
       </c>
       <c r="E108">
-        <v>1011.598</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="F108">
         <v>1368</v>
@@ -5212,7 +5213,7 @@
         <v>99</v>
       </c>
       <c r="E109">
-        <v>866.72699999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F109">
         <v>1152</v>
@@ -5252,7 +5253,7 @@
         <v>99</v>
       </c>
       <c r="E110">
-        <v>866.72699999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F110">
         <v>1152</v>
@@ -5292,7 +5293,7 @@
         <v>99</v>
       </c>
       <c r="E111">
-        <v>866.72699999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F111">
         <v>1152</v>
@@ -5332,7 +5333,7 @@
         <v>57</v>
       </c>
       <c r="E112">
-        <v>1080.6410000000001</v>
+        <v>23.640999999999998</v>
       </c>
       <c r="F112">
         <v>1646</v>
@@ -5452,7 +5453,7 @@
         <v>99</v>
       </c>
       <c r="E115">
-        <v>382.06599999999997</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="F115">
         <v>635</v>
@@ -5612,7 +5613,7 @@
         <v>99</v>
       </c>
       <c r="E119">
-        <v>157.15299999999999</v>
+        <v>1.153</v>
       </c>
       <c r="F119">
         <v>234</v>
@@ -8012,7 +8013,7 @@
         <v>51</v>
       </c>
       <c r="E179">
-        <v>8.0419999999999998</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F179">
         <v>16</v>
@@ -8772,7 +8773,7 @@
         <v>51</v>
       </c>
       <c r="E198">
-        <v>18.324999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F198">
         <v>36</v>
@@ -9692,7 +9693,7 @@
         <v>01</v>
       </c>
       <c r="E221">
-        <v>340.23500000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F221">
         <v>510</v>
@@ -9732,7 +9733,7 @@
         <v>01</v>
       </c>
       <c r="E222">
-        <v>1008.581</v>
+        <v>2.581</v>
       </c>
       <c r="F222">
         <v>1509</v>
@@ -10052,7 +10053,7 @@
         <v>04</v>
       </c>
       <c r="E230">
-        <v>97.117000000000004</v>
+        <v>3.117</v>
       </c>
       <c r="F230">
         <v>188</v>
@@ -10132,7 +10133,7 @@
         <v>04</v>
       </c>
       <c r="E232">
-        <v>73.063999999999993</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="F232">
         <v>108</v>
@@ -10292,7 +10293,7 @@
         <v>04</v>
       </c>
       <c r="E236">
-        <v>91.432000000000002</v>
+        <v>3.4319999999999999</v>
       </c>
       <c r="F236">
         <v>176</v>
@@ -10332,7 +10333,7 @@
         <v>04</v>
       </c>
       <c r="E237">
-        <v>120.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F237">
         <v>180</v>
@@ -11252,7 +11253,7 @@
         <v>07</v>
       </c>
       <c r="E260">
-        <v>726.21400000000006</v>
+        <v>2.214</v>
       </c>
       <c r="F260">
         <v>1448</v>
@@ -12252,7 +12253,7 @@
         <v>54</v>
       </c>
       <c r="E285">
-        <v>4.0039999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F285">
         <v>6</v>
@@ -12532,7 +12533,7 @@
         <v>46</v>
       </c>
       <c r="E292">
-        <v>2663.5839999999998</v>
+        <v>15.584</v>
       </c>
       <c r="F292">
         <v>3732</v>
@@ -12572,7 +12573,7 @@
         <v>46</v>
       </c>
       <c r="E293">
-        <v>927.56600000000003</v>
+        <v>9.5660000000000007</v>
       </c>
       <c r="F293">
         <v>1377</v>
@@ -12612,7 +12613,7 @@
         <v>46</v>
       </c>
       <c r="E294">
-        <v>626.899</v>
+        <v>2.899</v>
       </c>
       <c r="F294">
         <v>936</v>
@@ -12892,7 +12893,7 @@
         <v>57</v>
       </c>
       <c r="E301">
-        <v>1197.8320000000001</v>
+        <v>5.8319999999999999</v>
       </c>
       <c r="F301">
         <v>1490</v>
@@ -12932,7 +12933,7 @@
         <v>57</v>
       </c>
       <c r="E302">
-        <v>1197.8320000000001</v>
+        <v>5.8319999999999999</v>
       </c>
       <c r="F302">
         <v>1490</v>
@@ -12972,7 +12973,7 @@
         <v>57</v>
       </c>
       <c r="E303">
-        <v>1058.018</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="F303">
         <v>1320</v>
@@ -13012,7 +13013,7 @@
         <v>57</v>
       </c>
       <c r="E304">
-        <v>1058.018</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="F304">
         <v>1320</v>
@@ -13372,7 +13373,7 @@
         <v>73</v>
       </c>
       <c r="E313">
-        <v>46.292999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F313">
         <v>92</v>
@@ -13492,7 +13493,7 @@
         <v>99</v>
       </c>
       <c r="E316">
-        <v>772.30799999999999</v>
+        <v>18.308</v>
       </c>
       <c r="F316">
         <v>1248</v>
@@ -13532,7 +13533,7 @@
         <v>99</v>
       </c>
       <c r="E317">
-        <v>890.58399999999995</v>
+        <v>23.584</v>
       </c>
       <c r="F317">
         <v>1423</v>
@@ -13572,7 +13573,7 @@
         <v>99</v>
       </c>
       <c r="E318">
-        <v>960.34900000000005</v>
+        <v>20.349</v>
       </c>
       <c r="F318">
         <v>1357</v>
@@ -13612,7 +13613,7 @@
         <v>99</v>
       </c>
       <c r="E319">
-        <v>848.82299999999998</v>
+        <v>8.8230000000000004</v>
       </c>
       <c r="F319">
         <v>1204</v>
@@ -13652,7 +13653,7 @@
         <v>99</v>
       </c>
       <c r="E320">
-        <v>451.6</v>
+        <v>3.6</v>
       </c>
       <c r="F320">
         <v>896</v>
@@ -13692,7 +13693,7 @@
         <v>99</v>
       </c>
       <c r="E321">
-        <v>705.32100000000003</v>
+        <v>19.321000000000002</v>
       </c>
       <c r="F321">
         <v>1261</v>
@@ -13732,7 +13733,7 @@
         <v>99</v>
       </c>
       <c r="E322">
-        <v>788.67700000000002</v>
+        <v>22.677</v>
       </c>
       <c r="F322">
         <v>1431</v>
@@ -14372,7 +14373,7 @@
         <v>01</v>
       </c>
       <c r="E338">
-        <v>276.41199999999998</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F338">
         <v>550</v>
@@ -14452,7 +14453,7 @@
         <v>01</v>
       </c>
       <c r="E340">
-        <v>7.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F340">
         <v>14</v>
@@ -14532,7 +14533,7 @@
         <v>01</v>
       </c>
       <c r="E342">
-        <v>14.108000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="F342">
         <v>28</v>
@@ -14692,7 +14693,7 @@
         <v>01</v>
       </c>
       <c r="E346">
-        <v>32.122999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="F346">
         <v>64</v>
@@ -14852,7 +14853,7 @@
         <v>01</v>
       </c>
       <c r="E350">
-        <v>34.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F350">
         <v>68</v>
@@ -15972,7 +15973,7 @@
         <v>01</v>
       </c>
       <c r="E378">
-        <v>305.99700000000001</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="F378">
         <v>608</v>
@@ -16492,7 +16493,7 @@
         <v>01</v>
       </c>
       <c r="E391">
-        <v>628.60900000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F391">
         <v>942</v>
@@ -17212,7 +17213,7 @@
         <v>50</v>
       </c>
       <c r="E409">
-        <v>189.25399999999999</v>
+        <v>1.254</v>
       </c>
       <c r="F409">
         <v>376</v>
@@ -17292,7 +17293,7 @@
         <v>50</v>
       </c>
       <c r="E411">
-        <v>1437.1220000000001</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="F411">
         <v>2395</v>
@@ -18132,7 +18133,7 @@
         <v>57</v>
       </c>
       <c r="E432">
-        <v>1034.952</v>
+        <v>22.952000000000002</v>
       </c>
       <c r="F432">
         <v>1639</v>
@@ -18252,7 +18253,7 @@
         <v>57</v>
       </c>
       <c r="E435">
-        <v>162.20500000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F435">
         <v>243</v>
@@ -18692,7 +18693,7 @@
         <v>73</v>
       </c>
       <c r="E446">
-        <v>16.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F446">
         <v>24</v>
@@ -18852,7 +18853,7 @@
         <v>73</v>
       </c>
       <c r="E450">
-        <v>768.755</v>
+        <v>8.7550000000000008</v>
       </c>
       <c r="F450">
         <v>1512</v>
@@ -18932,7 +18933,7 @@
         <v>99</v>
       </c>
       <c r="E452">
-        <v>702.32</v>
+        <v>16.32</v>
       </c>
       <c r="F452">
         <v>1178</v>
@@ -19732,7 +19733,7 @@
         <v>60</v>
       </c>
       <c r="E472">
-        <v>264.30900000000003</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="F472">
         <v>526</v>
@@ -20692,7 +20693,7 @@
         <v>01</v>
       </c>
       <c r="E496">
-        <v>609.30100000000004</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="F496">
         <v>912</v>
@@ -22492,7 +22493,7 @@
         <v>99</v>
       </c>
       <c r="E541">
-        <v>476.84300000000002</v>
+        <v>2.843</v>
       </c>
       <c r="F541">
         <v>790</v>
@@ -22572,7 +22573,7 @@
         <v>99</v>
       </c>
       <c r="E543">
-        <v>240.55600000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F543">
         <v>342</v>
@@ -22652,7 +22653,7 @@
         <v>99</v>
       </c>
       <c r="E545">
-        <v>54.249000000000002</v>
+        <v>0.249</v>
       </c>
       <c r="F545">
         <v>108</v>
@@ -23892,7 +23893,7 @@
         <v>50</v>
       </c>
       <c r="E576">
-        <v>428.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="F576">
         <v>654</v>
@@ -24292,7 +24293,7 @@
         <v>58</v>
       </c>
       <c r="E586">
-        <v>479.23599999999999</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="F586">
         <v>762</v>
@@ -24532,7 +24533,7 @@
         <v>56</v>
       </c>
       <c r="E592">
-        <v>814.84900000000005</v>
+        <v>6.8490000000000002</v>
       </c>
       <c r="F592">
         <v>1270</v>
@@ -24812,7 +24813,7 @@
         <v>55</v>
       </c>
       <c r="E599">
-        <v>50.566000000000003</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F599">
         <v>70</v>
@@ -24852,7 +24853,7 @@
         <v>55</v>
       </c>
       <c r="E600">
-        <v>330.04500000000002</v>
+        <v>10.045</v>
       </c>
       <c r="F600">
         <v>448</v>
@@ -24932,7 +24933,7 @@
         <v>55</v>
       </c>
       <c r="E602">
-        <v>996.80499999999995</v>
+        <v>5.8049999999999997</v>
       </c>
       <c r="F602">
         <v>1512</v>
@@ -24972,7 +24973,7 @@
         <v>55</v>
       </c>
       <c r="E603">
-        <v>1007.553</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="F603">
         <v>1490</v>
@@ -25012,7 +25013,7 @@
         <v>99</v>
       </c>
       <c r="E604">
-        <v>800.39400000000001</v>
+        <v>22.393999999999998</v>
       </c>
       <c r="F604">
         <v>1167</v>
@@ -25030,8 +25031,8 @@
         <v>2512028396</v>
       </c>
       <c r="J604" t="str">
-        <f>"NOT DELIVERED"</f>
-        <v>NOT DELIVERED</v>
+        <f>"DELIVERED"</f>
+        <v>DELIVERED</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
@@ -25052,7 +25053,7 @@
         <v>99</v>
       </c>
       <c r="E605">
-        <v>934.27499999999998</v>
+        <v>22.274999999999999</v>
       </c>
       <c r="F605">
         <v>1493</v>
@@ -26132,7 +26133,7 @@
         <v>58</v>
       </c>
       <c r="E632">
-        <v>1091.0940000000001</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="F632">
         <v>1632</v>
@@ -26172,7 +26173,7 @@
         <v>58</v>
       </c>
       <c r="E633">
-        <v>554.78399999999999</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="F633">
         <v>1080</v>
@@ -26372,7 +26373,7 @@
         <v>81</v>
       </c>
       <c r="E638">
-        <v>3134.1280000000002</v>
+        <v>32.128</v>
       </c>
       <c r="F638">
         <v>4136</v>
@@ -27452,7 +27453,7 @@
         <v>12</v>
       </c>
       <c r="E665">
-        <v>105.437</v>
+        <v>0.437</v>
       </c>
       <c r="F665">
         <v>175</v>
@@ -28692,7 +28693,7 @@
         <v>54</v>
       </c>
       <c r="E696">
-        <v>16.015999999999998</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F696">
         <v>20</v>
@@ -29532,7 +29533,7 @@
         <v>99</v>
       </c>
       <c r="E717">
-        <v>45.088000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F717">
         <v>60</v>
@@ -29612,7 +29613,7 @@
         <v>99</v>
       </c>
       <c r="E719">
-        <v>45.088000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F719">
         <v>60</v>
@@ -29692,7 +29693,7 @@
         <v>99</v>
       </c>
       <c r="E721">
-        <v>45.088000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F721">
         <v>60</v>
